--- a/LIFTOFF/YPS1009_S288C_V5/missing_start_v5_annotated.xlsx
+++ b/LIFTOFF/YPS1009_S288C_V5/missing_start_v5_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\LIFTOFF\YPS1009_S288C_V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF5D472-9496-4966-8BDF-D8A1BE900FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45DD685-C339-40FB-B2DB-A67D7A65C268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,11 +983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCellId="2" sqref="A8:XFD11 A6:XFD6 A1:XFD1"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="26" max="26" width="24.2265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.75">
       <c r="B1" s="1" t="s">
@@ -1071,194 +1074,188 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
-        <v>157</v>
+        <v>2795</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>241438</v>
+        <v>12513</v>
       </c>
       <c r="D2">
-        <v>245433</v>
+        <v>13592</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>109</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
         <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
         <v>109</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S2">
-        <v>241438</v>
+        <v>12513</v>
       </c>
       <c r="T2">
-        <v>245433</v>
+        <v>13592</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="s">
         <v>168</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
-        <v>2292</v>
+        <v>4794</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>445786</v>
+        <v>678731</v>
       </c>
       <c r="D3">
-        <v>446360</v>
+        <v>680415</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>120</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q3" t="s">
         <v>109</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S3">
-        <v>445786</v>
+        <v>678731</v>
       </c>
       <c r="T3">
-        <v>446360</v>
+        <v>680415</v>
       </c>
       <c r="U3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="V3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
         <v>168</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
-        <v>1694</v>
+        <v>2292</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>373545</v>
+        <v>445786</v>
       </c>
       <c r="D4">
-        <v>374108</v>
+        <v>446360</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
         <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
         <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
@@ -1266,34 +1263,34 @@
       </c>
       <c r="O4"/>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="s">
         <v>109</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S4">
-        <v>373545</v>
+        <v>445786</v>
       </c>
       <c r="T4">
-        <v>374108</v>
+        <v>446360</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Z4" t="s">
         <v>168</v>
@@ -1304,73 +1301,79 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>3812</v>
+        <v>5330</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>445067</v>
+        <v>849</v>
       </c>
       <c r="D5">
-        <v>446593</v>
+        <v>1061</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
         <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="M5" t="s">
+        <v>119</v>
       </c>
       <c r="N5" t="s">
         <v>120</v>
       </c>
+      <c r="O5" t="s">
+        <v>119</v>
+      </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="s">
         <v>109</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S5">
-        <v>445067</v>
+        <v>849</v>
       </c>
       <c r="T5">
-        <v>446593</v>
+        <v>1061</v>
       </c>
       <c r="U5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="V5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="X5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Y5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z5" t="s">
         <v>168</v>
@@ -1380,159 +1383,154 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.75">
-      <c r="A6" s="5">
-        <v>4787</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6">
-        <v>660792</v>
-      </c>
-      <c r="D6" s="6">
-        <v>661424</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
+      <c r="A6" s="1">
+        <v>676</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>46438</v>
+      </c>
+      <c r="D6">
+        <v>46547</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="6">
-        <v>660792</v>
-      </c>
-      <c r="T6" s="6">
-        <v>661424</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>109</v>
+      <c r="O6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6">
+        <v>46438</v>
+      </c>
+      <c r="T6">
+        <v>46547</v>
+      </c>
+      <c r="U6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>5330</v>
+        <v>1694</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>849</v>
+        <v>373545</v>
       </c>
       <c r="D7">
-        <v>1061</v>
+        <v>374108</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
         <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
         <v>120</v>
       </c>
-      <c r="O7" t="s">
-        <v>119</v>
-      </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="s">
         <v>109</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="S7">
-        <v>849</v>
+        <v>373545</v>
       </c>
       <c r="T7">
-        <v>1061</v>
+        <v>374108</v>
       </c>
       <c r="U7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Z7" t="s">
         <v>168</v>
@@ -1542,233 +1540,235 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.75">
-      <c r="A8" s="3">
-        <v>874</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4">
-        <v>381046</v>
-      </c>
-      <c r="D8" s="4">
-        <v>383253</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="A8" s="1">
+        <v>5072</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>469312</v>
+      </c>
+      <c r="D8">
+        <v>470934</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="4">
-        <v>381046</v>
-      </c>
-      <c r="T8" s="4">
-        <v>383253</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>169</v>
+      <c r="P8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8">
+        <v>469312</v>
+      </c>
+      <c r="T8">
+        <v>470934</v>
+      </c>
+      <c r="U8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" t="s">
+        <v>149</v>
+      </c>
+      <c r="W8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>1920</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>38804</v>
-      </c>
-      <c r="D9">
-        <v>40006</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="A9" s="5">
+        <v>4787</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>660792</v>
+      </c>
+      <c r="D9" s="6">
+        <v>661424</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="J9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" t="s">
-        <v>109</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9">
-        <v>38804</v>
-      </c>
-      <c r="T9">
-        <v>40006</v>
-      </c>
-      <c r="U9" t="s">
-        <v>139</v>
-      </c>
-      <c r="V9" t="s">
-        <v>139</v>
-      </c>
-      <c r="W9" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>168</v>
+      <c r="Q9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="6">
+        <v>660792</v>
+      </c>
+      <c r="T9" s="6">
+        <v>661424</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="AA9" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>5072</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>469312</v>
-      </c>
-      <c r="D10">
-        <v>470934</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="A10" s="3">
+        <v>874</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4">
+        <v>381046</v>
+      </c>
+      <c r="D10" s="4">
+        <v>383253</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P10" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>109</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10">
-        <v>469312</v>
-      </c>
-      <c r="T10">
-        <v>470934</v>
-      </c>
-      <c r="U10" t="s">
-        <v>149</v>
-      </c>
-      <c r="V10" t="s">
-        <v>149</v>
-      </c>
-      <c r="W10" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>168</v>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4">
+        <v>381046</v>
+      </c>
+      <c r="T10" s="4">
+        <v>383253</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="AA10" t="s">
         <v>173</v>
@@ -1853,156 +1853,156 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
-        <v>2795</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>12513</v>
+        <v>241438</v>
       </c>
       <c r="D12">
-        <v>13592</v>
+        <v>245433</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
         <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
         <v>120</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q12" t="s">
         <v>109</v>
       </c>
       <c r="R12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S12">
-        <v>12513</v>
+        <v>241438</v>
       </c>
       <c r="T12">
-        <v>13592</v>
+        <v>245433</v>
       </c>
       <c r="U12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
         <v>168</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
-        <v>676</v>
+        <v>1920</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>46438</v>
+        <v>38804</v>
       </c>
       <c r="D13">
-        <v>46547</v>
+        <v>40006</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
         <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="O13" t="s">
-        <v>119</v>
-      </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q13" t="s">
         <v>109</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>46438</v>
+        <v>38804</v>
       </c>
       <c r="T13">
-        <v>46547</v>
+        <v>40006</v>
       </c>
       <c r="U13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="V13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Z13" t="s">
         <v>168</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.75">
@@ -2084,291 +2084,294 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
-        <v>1610</v>
+        <v>3812</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>235689</v>
+        <v>445067</v>
       </c>
       <c r="D15">
-        <v>236111</v>
+        <v>446593</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
         <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
       </c>
       <c r="N15" t="s">
         <v>120</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q15" t="s">
         <v>109</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S15">
-        <v>235689</v>
+        <v>445067</v>
       </c>
       <c r="T15">
-        <v>236111</v>
+        <v>446593</v>
       </c>
       <c r="U15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Z15" t="s">
         <v>168</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
-        <v>4065</v>
+        <v>2937</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>5009</v>
+        <v>680</v>
       </c>
       <c r="D16">
-        <v>5314</v>
+        <v>5190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s">
         <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
       </c>
       <c r="N16" t="s">
         <v>120</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q16" t="s">
         <v>109</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S16">
-        <v>5009</v>
+        <v>680</v>
       </c>
       <c r="T16">
-        <v>5314</v>
+        <v>5190</v>
       </c>
       <c r="U16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
-        <v>2937</v>
+        <v>1610</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>680</v>
+        <v>235689</v>
       </c>
       <c r="D17">
-        <v>5190</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
+        <v>236111</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
       </c>
       <c r="N17" t="s">
         <v>120</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="s">
         <v>109</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S17">
-        <v>680</v>
+        <v>235689</v>
       </c>
       <c r="T17">
-        <v>5190</v>
+        <v>236111</v>
       </c>
       <c r="U17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="V17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
-        <v>4794</v>
+        <v>4065</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>678731</v>
+        <v>5009</v>
       </c>
       <c r="D18">
-        <v>680415</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
+        <v>5314</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" t="s">
-        <v>46</v>
       </c>
       <c r="N18" t="s">
         <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q18" t="s">
         <v>109</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18">
-        <v>678731</v>
+        <v>5009</v>
       </c>
       <c r="T18">
-        <v>680415</v>
+        <v>5314</v>
       </c>
       <c r="U18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z18" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA19">
-    <sortCondition ref="AA1"/>
+  <sortState ref="A2:AA18">
+    <sortCondition ref="L1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
